--- a/config_5.18/game_activity_config.xlsx
+++ b/config_5.18/game_activity_config.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="155">
   <si>
     <t>line|行号</t>
   </si>
@@ -339,9 +339,6 @@
   </si>
   <si>
     <t>"act_034_ldfd","panel"</t>
-  </si>
-  <si>
-    <t>recom</t>
   </si>
   <si>
     <t>暖春福利</t>
@@ -562,7 +559,7 @@
     <t>"act_054_byns","panel"</t>
   </si>
   <si>
-    <t>消除能手</t>
+    <t>爱消福利</t>
   </si>
   <si>
     <t>欢乐福利</t>
@@ -581,6 +578,12 @@
   </si>
   <si>
     <t>"act_ty_task","act_hlfl_byam","panel"</t>
+  </si>
+  <si>
+    <t>福气达人</t>
+  </si>
+  <si>
+    <t>actp_rank_hlwyt_016_fqdr_rank</t>
   </si>
 </sst>
 </file>
@@ -588,12 +591,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,39 +635,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,6 +658,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,8 +698,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,9 +711,48 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,7 +767,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -737,30 +776,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,7 +784,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,12 +797,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -819,13 +835,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,25 +859,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,13 +895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,13 +907,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,55 +931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,31 +955,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,6 +1038,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1037,13 +1062,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,21 +1088,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,15 +1110,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1119,6 +1124,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1127,22 +1143,22 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1151,127 +1167,127 @@
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1341,6 +1357,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,14 +1375,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1381,6 +1400,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1704,14 +1729,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K29" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomRight" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1759,7 +1784,7 @@
       <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -1771,7 +1796,7 @@
       <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="9" t="s">
@@ -1809,7 +1834,7 @@
       <c r="K2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="34" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="2">
@@ -2193,10 +2218,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="34">
+      <c r="I11" s="35">
         <v>1614643200</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="35">
         <v>1615219199</v>
       </c>
       <c r="K11" s="15" t="s">
@@ -2283,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="34">
+      <c r="I13" s="35">
         <v>1612828800</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="35">
         <v>1613404799</v>
       </c>
       <c r="K13" s="15" t="s">
@@ -2330,10 +2355,10 @@
       <c r="H14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="35">
         <v>1617667200</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="35">
         <v>1618243199</v>
       </c>
       <c r="K14" s="15" t="s">
@@ -2377,10 +2402,10 @@
       <c r="H15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="35">
         <v>1617667200</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="35">
         <v>1618243199</v>
       </c>
       <c r="K15" s="15" t="s">
@@ -2424,10 +2449,10 @@
       <c r="H16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="35">
         <v>1614643200</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="35">
         <v>1615219199</v>
       </c>
       <c r="K16" s="15" t="s">
@@ -2468,10 +2493,10 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="35">
         <v>1612828800</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="35">
         <v>1613404799</v>
       </c>
       <c r="K17" s="15" t="s">
@@ -2556,10 +2581,10 @@
       <c r="H19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="35">
         <v>1612828800</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="35">
         <v>1613404799</v>
       </c>
       <c r="K19" s="15" t="s">
@@ -2814,14 +2839,14 @@
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="4">
-        <v>1617062400</v>
-      </c>
-      <c r="J25" s="4">
-        <v>1617033599</v>
+      <c r="I25" s="6">
+        <v>1621296000</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1621871999</v>
       </c>
       <c r="K25" s="18" t="s">
         <v>31</v>
@@ -2835,8 +2860,8 @@
       <c r="N25" s="4">
         <v>1</v>
       </c>
-      <c r="O25" s="18" t="s">
-        <v>96</v>
+      <c r="O25" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="14.25" spans="1:15">
@@ -2850,7 +2875,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -2897,7 +2922,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -2944,7 +2969,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" s="2">
         <v>2</v>
@@ -2965,7 +2990,7 @@
         <v>56</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N28" s="2">
         <v>1</v>
@@ -2985,7 +3010,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" s="2">
         <v>-20</v>
@@ -3003,16 +3028,16 @@
         <v>31</v>
       </c>
       <c r="L29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="N29" s="2">
-        <v>1</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="14.25" spans="1:15">
@@ -3026,10 +3051,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F30" s="2">
         <v>2</v>
@@ -3038,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I30" s="2">
         <v>1617667200</v>
@@ -3053,7 +3078,7 @@
         <v>56</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N30" s="2">
         <v>1</v>
@@ -3073,10 +3098,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" s="2">
         <v>2</v>
@@ -3085,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I31" s="2">
         <v>1617667200</v>
@@ -3100,7 +3125,7 @@
         <v>56</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N31" s="2">
         <v>1</v>
@@ -3120,10 +3145,10 @@
         <v>31</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
@@ -3132,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I32" s="2">
         <v>1617667200</v>
@@ -3147,7 +3172,7 @@
         <v>56</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N32" s="2">
         <v>1</v>
@@ -3167,10 +3192,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="2">
         <v>2</v>
@@ -3179,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I33" s="2">
         <v>1617667200</v>
@@ -3194,7 +3219,7 @@
         <v>56</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N33" s="2">
         <v>1</v>
@@ -3203,7 +3228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:15">
+    <row r="34" ht="15.75" spans="1:15">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -3214,28 +3239,34 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="6">
+        <v>2</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1621296000</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1621871999</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1617667200</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1618243199</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L34" s="15" t="s">
+      <c r="M34" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="N34" s="6">
         <v>1</v>
@@ -3248,26 +3279,26 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="25">
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="26" t="s">
         <v>120</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>121</v>
       </c>
       <c r="I35" s="5">
         <v>1619481600</v>
@@ -3275,14 +3306,14 @@
       <c r="J35" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K35" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="L35" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" s="35" t="s">
-        <v>107</v>
+      <c r="K35" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>106</v>
       </c>
       <c r="N35" s="5">
         <v>1</v>
@@ -3295,26 +3326,26 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="25">
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
       </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>123</v>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="I36" s="5">
         <v>1619481600</v>
@@ -3322,14 +3353,14 @@
       <c r="J36" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K36" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="M36" s="35" t="s">
-        <v>110</v>
+      <c r="K36" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>109</v>
       </c>
       <c r="N36" s="5">
         <v>1</v>
@@ -3342,26 +3373,26 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="25">
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
       </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>124</v>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="I37" s="5">
         <v>1619481600</v>
@@ -3369,14 +3400,14 @@
       <c r="J37" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K37" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="M37" s="35" t="s">
-        <v>113</v>
+      <c r="K37" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M37" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="N37" s="5">
         <v>1</v>
@@ -3389,26 +3420,26 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="25">
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
       </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>125</v>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="I38" s="5">
         <v>1619481600</v>
@@ -3416,14 +3447,14 @@
       <c r="J38" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K38" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="M38" s="35" t="s">
-        <v>116</v>
+      <c r="K38" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" s="36" t="s">
+        <v>115</v>
       </c>
       <c r="N38" s="5">
         <v>1</v>
@@ -3436,25 +3467,25 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="25">
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="F39" s="5">
         <v>2</v>
       </c>
-      <c r="G39" s="5">
-        <v>1</v>
-      </c>
-      <c r="H39" s="26" t="s">
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="27" t="s">
         <v>92</v>
       </c>
       <c r="I39" s="5">
@@ -3463,11 +3494,11 @@
       <c r="J39" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K39" s="35" t="s">
+      <c r="K39" s="36" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>57</v>
@@ -3483,26 +3514,26 @@
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="25">
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="F40" s="5">
         <v>3</v>
       </c>
-      <c r="G40" s="5">
-        <v>1</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>131</v>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="I40" s="5">
         <v>1619481600</v>
@@ -3510,11 +3541,11 @@
       <c r="J40" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K40" s="35" t="s">
+      <c r="K40" s="36" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>61</v>
@@ -3530,23 +3561,23 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="25">
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F41" s="5">
         <v>2</v>
       </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>134</v>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="I41" s="5">
         <v>1619481600</v>
@@ -3554,14 +3585,14 @@
       <c r="J41" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K41" s="35" t="s">
+      <c r="K41" s="36" t="s">
         <v>31</v>
       </c>
       <c r="L41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M41" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="N41" s="5">
         <v>1</v>
@@ -3581,19 +3612,19 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="F42" s="6">
         <v>-20</v>
       </c>
       <c r="G42" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I42" s="5">
         <v>1618272000</v>
@@ -3605,7 +3636,7 @@
         <v>21</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M42" s="6" t="s">
         <v>84</v>
@@ -3614,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:15">
@@ -3628,7 +3659,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>65</v>
@@ -3637,7 +3668,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="20" t="s">
         <v>66</v>
@@ -3652,7 +3683,7 @@
         <v>31</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M43" s="15" t="s">
         <v>67</v>
@@ -3675,7 +3706,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>68</v>
@@ -3684,9 +3715,9 @@
         <v>3</v>
       </c>
       <c r="G44" s="6">
-        <v>1</v>
-      </c>
-      <c r="H44" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="29" t="s">
         <v>69</v>
       </c>
       <c r="I44" s="6">
@@ -3699,7 +3730,7 @@
         <v>31</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M44" s="15" t="s">
         <v>70</v>
@@ -3722,7 +3753,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>65</v>
@@ -3731,12 +3762,12 @@
         <v>1</v>
       </c>
       <c r="G45" s="6">
-        <v>1</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="I45" s="36">
+        <v>0</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I45" s="37">
         <v>1620691200</v>
       </c>
       <c r="J45" s="6">
@@ -3746,7 +3777,7 @@
         <v>31</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>61</v>
@@ -3769,7 +3800,7 @@
         <v>44</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>65</v>
@@ -3778,12 +3809,12 @@
         <v>2</v>
       </c>
       <c r="G46" s="6">
-        <v>1</v>
-      </c>
-      <c r="H46" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="37">
         <v>1620691200</v>
       </c>
       <c r="J46" s="6">
@@ -3793,10 +3824,10 @@
         <v>31</v>
       </c>
       <c r="L46" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M46" s="23" t="s">
         <v>145</v>
-      </c>
-      <c r="M46" s="28" t="s">
-        <v>146</v>
       </c>
       <c r="N46" s="5">
         <v>1</v>
@@ -3816,28 +3847,34 @@
         <v>45</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="F47" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" s="6">
         <v>1</v>
       </c>
-      <c r="I47" s="36">
-        <v>1620691200</v>
+      <c r="H47" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="6">
+        <v>1621296000</v>
       </c>
       <c r="J47" s="6">
-        <v>1621267199</v>
+        <v>1621871999</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M47" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="M47" s="28" t="s">
-        <v>136</v>
       </c>
       <c r="N47" s="5">
         <v>1</v>
@@ -3857,7 +3894,7 @@
         <v>46</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>65</v>
@@ -3866,12 +3903,12 @@
         <v>4</v>
       </c>
       <c r="G48" s="6">
-        <v>1</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="I48" s="36">
+        <v>0</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I48" s="37">
         <v>1620691200</v>
       </c>
       <c r="J48" s="6">
@@ -3881,10 +3918,10 @@
         <v>31</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N48" s="5">
         <v>1</v>
@@ -3904,7 +3941,7 @@
         <v>47</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>68</v>
@@ -3913,12 +3950,12 @@
         <v>1</v>
       </c>
       <c r="G49" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I49" s="37">
         <v>1620691200</v>
       </c>
       <c r="J49" s="6">
@@ -3928,10 +3965,10 @@
         <v>31</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N49" s="5">
         <v>1</v>
@@ -3951,21 +3988,21 @@
         <v>48</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F50" s="6">
         <v>4</v>
       </c>
       <c r="G50" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="I50" s="36">
+        <v>151</v>
+      </c>
+      <c r="I50" s="37">
         <v>1620691200</v>
       </c>
       <c r="J50" s="6">
@@ -3975,17 +4012,94 @@
         <v>31</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M50" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="N50" s="5">
+        <v>1</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:15">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="8">
+        <v>50</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="N50" s="5">
-        <v>1</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="E51" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="6">
+        <v>3</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="I51" s="6">
+        <v>1621296000</v>
+      </c>
+      <c r="J51" s="6">
+        <v>1621871999</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N51" s="6">
+        <v>1</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" spans="8:15">
+      <c r="H52" s="23"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" ht="14.25" spans="8:15">
+      <c r="H53" s="31"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="54" ht="15.75" spans="8:15">
+      <c r="H54" s="23"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O50">

--- a/config_5.18/game_activity_config.xlsx
+++ b/config_5.18/game_activity_config.xlsx
@@ -10,7 +10,7 @@
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$51</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -338,7 +338,7 @@
     <t>幸运福袋</t>
   </si>
   <si>
-    <t>"act_034_ldfd","panel"</t>
+    <t>"act_ty_ldfd","panel"</t>
   </si>
   <si>
     <t>暖春福利</t>
@@ -591,10 +591,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -649,28 +649,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -678,7 +656,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,27 +671,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,6 +693,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -743,11 +708,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -766,11 +745,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,19 +777,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -835,19 +835,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +889,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,7 +919,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,31 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,85 +991,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,32 +1047,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,11 +1080,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,13 +1121,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,10 +1143,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,139 +1155,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1404,9 +1404,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1732,11 +1729,11 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M57" sqref="M57"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4073,36 +4070,22 @@
     </row>
     <row r="52" ht="15.75" spans="8:15">
       <c r="H52" s="23"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="6"/>
+      <c r="M52" s="23"/>
       <c r="O52" s="5"/>
     </row>
     <row r="53" ht="14.25" spans="8:15">
       <c r="H53" s="31"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="1"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="6"/>
       <c r="O53" s="5"/>
     </row>
     <row r="54" ht="15.75" spans="8:15">
       <c r="H54" s="23"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="6"/>
       <c r="M54" s="23"/>
-      <c r="N54" s="6"/>
       <c r="O54" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O50">
+  <autoFilter ref="A1:O51">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
